--- a/data/income_statement/2digits/size/45_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/45_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,899 +841,1014 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3427953.45043</v>
+        <v>3663811.92654</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3768079.41802</v>
+        <v>4043298.67388</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4410312.33199</v>
+        <v>4724985.285560001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4906854.7032</v>
+        <v>5274057.822900001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4328552.0182</v>
+        <v>4784331.93971</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4419677.527310001</v>
+        <v>4993233.838029999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4667452.55887</v>
+        <v>5370949.05542</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4961862.74141</v>
+        <v>5717220.157699999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5475812.89634</v>
+        <v>6321028.325</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>15855121.86001</v>
+        <v>17086826.48344</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>18103855.87402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19960620.32321</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>24588502.291</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3156741.669939999</v>
+        <v>3372383.28873</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3479645.12421</v>
+        <v>3733672.87598</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3998100.922</v>
+        <v>4287296.13517</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4436594.078400001</v>
+        <v>4778751.839720001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4044354.25801</v>
+        <v>4472545.29061</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4090005.52378</v>
+        <v>4627932.543759999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4318604.983779999</v>
+        <v>4962195.73803</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4609285.41336</v>
+        <v>5321713.866780001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4967845.94417</v>
+        <v>5764925.464199999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>14469682.3934</v>
+        <v>15547770.58845</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16298522.15334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17987269.82344</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>22847021.774</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>199377.23062</v>
+        <v>211672.98682</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>219557.41126</v>
+        <v>228796.44654</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>345705.80389</v>
+        <v>359780.99688</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>411588.81251</v>
+        <v>423167.88052</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>223889.86825</v>
+        <v>237340.05214</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>274138.15731</v>
+        <v>291296.36349</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>287970.70819</v>
+        <v>325182.21645</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>288631.87549</v>
+        <v>305509.81997</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>437574.4505699999</v>
+        <v>455451.44719</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1185179.2933</v>
+        <v>1300098.88403</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1594790.10115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1717775.99672</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1446764.401</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>71834.54987</v>
+        <v>79755.65098999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>68876.88254999999</v>
+        <v>80829.35136</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>66505.6061</v>
+        <v>77908.15350999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>58671.81229</v>
+        <v>72138.10265999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>60307.89193999999</v>
+        <v>74446.59696</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>55533.84622000001</v>
+        <v>74004.93078</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>60876.8669</v>
+        <v>83571.10094</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>63945.45256000001</v>
+        <v>89996.47095</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>70392.50159999999</v>
+        <v>100651.41361</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>200260.17331</v>
+        <v>238957.01096</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>210543.61953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>255574.50305</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>294716.116</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>36859.3391</v>
+        <v>40127.91909</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>35502.57326</v>
+        <v>39640.7481</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>37356.73061</v>
+        <v>42581.76016999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>25992.96938</v>
+        <v>29808.29084</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>25747.50106</v>
+        <v>32416.72185</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24392.87161</v>
+        <v>32421.41287</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>17346.01703</v>
+        <v>21638.55428</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>21473.01135</v>
+        <v>26928.58413</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>18333.19756</v>
+        <v>25946.15934</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>81698.13533</v>
+        <v>96283.56312000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>83866.56359000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>110814.44168</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>125455.89</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>19534.52933</v>
+        <v>22046.08533</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>17926.08836</v>
+        <v>20143.5096</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21638.78448</v>
+        <v>25051.66696</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>16519.20993</v>
+        <v>19643.07417</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>16640.06791</v>
+        <v>20944.61941</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13948.49703</v>
+        <v>18583.44097</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9713.952830000002</v>
+        <v>13176.1265</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>14029.70843</v>
+        <v>17673.99684</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>12745.62415</v>
+        <v>19201.05436</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>58979.10601</v>
+        <v>68946.28651999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>65634.66537999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>77500.52203000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>100920.12</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>15106.32096</v>
+        <v>15544.34629</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>13221.90192</v>
+        <v>14533.94738</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>13275.62111</v>
+        <v>14252.87968</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6163.00976</v>
+        <v>6571.9693</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7846.87938</v>
+        <v>9793.785679999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8827.36707</v>
+        <v>12178.1222</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>6466.39559</v>
+        <v>7208.60622</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6587.31317</v>
+        <v>7912.696940000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4618.36572</v>
+        <v>5601.01603</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>13907.89619</v>
+        <v>17061.80761</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>13304.27648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>27266.6867</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>15418.33</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2218.48881</v>
+        <v>2537.48747</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4354.58298</v>
+        <v>4963.29112</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2442.325020000001</v>
+        <v>3277.21353</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3310.749690000001</v>
+        <v>3593.24737</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1260.55377</v>
+        <v>1678.31676</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1617.00751</v>
+        <v>1659.8497</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1165.66861</v>
+        <v>1253.82156</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>855.98975</v>
+        <v>1341.89035</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>969.20769</v>
+        <v>1144.08895</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8811.13313</v>
+        <v>10275.46899</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4927.621730000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6047.23295</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9117.440000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3391094.11133</v>
+        <v>3623684.00745</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3732576.84476</v>
+        <v>4003657.92578</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4372955.60138</v>
+        <v>4682403.52539</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4880861.73382</v>
+        <v>5244249.532059999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4302804.51714</v>
+        <v>4751915.21786</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4395284.655700001</v>
+        <v>4960812.42516</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4650106.54184</v>
+        <v>5349310.50114</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4940389.730059999</v>
+        <v>5690291.57357</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5457479.698779999</v>
+        <v>6295082.165659999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>15773423.72468</v>
+        <v>16990542.92032</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18019989.31043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19849805.88153</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>24463046.401</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2856119.28117</v>
+        <v>3039112.96955</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3185190.57284</v>
+        <v>3402118.6601</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3783451.20787</v>
+        <v>4034224.44373</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4322806.48701</v>
+        <v>4615748.49875</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3777341.77291</v>
+        <v>4134470.27183</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3885675.44453</v>
+        <v>4356083.21507</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4133003.38151</v>
+        <v>4696641.35916</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4385920.75129</v>
+        <v>4979195.256569999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4873921.33684</v>
+        <v>5529822.24367</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>14119505.09102</v>
+        <v>15127757.11262</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>16243718.23681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17757960.05203</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>22394804.14</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>110767.67006</v>
+        <v>125745.24795</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>120524.09299</v>
+        <v>134242.32015</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>137138.19345</v>
+        <v>153348.79876</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>127028.07405</v>
+        <v>138856.55539</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>94133.88089999999</v>
+        <v>109107.90141</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>108954.95754</v>
+        <v>131938.52798</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>100448.95118</v>
+        <v>121252.85171</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>106211.71528</v>
+        <v>136852.53703</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>109793.4706</v>
+        <v>140019.99431</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>315634.5559799999</v>
+        <v>357477.43083</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>389435.33738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>448711.0374799999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>406254.713</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2487854.15053</v>
+        <v>2638852.73388</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2782379.3087</v>
+        <v>2959212.55919</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3352006.30116</v>
+        <v>3559906.32445</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3892911.85654</v>
+        <v>4141183.95337</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3391548.63642</v>
+        <v>3697459.31872</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3481855.774089999</v>
+        <v>3876557.96879</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3696252.75941</v>
+        <v>4162707.94921</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3902305.147669999</v>
+        <v>4389447.051600001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4388811.62264</v>
+        <v>4919263.779270001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>12946818.72608</v>
+        <v>13766885.8816</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>14888796.50244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16198783.61333</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>20773313.719</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>250034.88715</v>
+        <v>266432.96946</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>277617.2633399999</v>
+        <v>299261.97323</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>287339.7513</v>
+        <v>313588.81104</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>295161.91737</v>
+        <v>327013.11371</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>286153.89519</v>
+        <v>321551.69694</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>285088.07311</v>
+        <v>334757.85903</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>308377.28989</v>
+        <v>381614.74691</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>350255.8483199999</v>
+        <v>421595.99706</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>355971.26298</v>
+        <v>443759.17273</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>759524.81599</v>
+        <v>898805.80906</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>875097.2512300001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1008892.14632</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1065152.369</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7462.57343</v>
+        <v>8082.01826</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4669.90781</v>
+        <v>9401.80753</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6966.96196</v>
+        <v>7380.509480000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7704.63905</v>
+        <v>8694.87628</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>5505.3604</v>
+        <v>6351.354760000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>9776.639790000001</v>
+        <v>12828.85927</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>27924.38103</v>
+        <v>31065.81133</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>27148.04002</v>
+        <v>31299.67088</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>19344.98062</v>
+        <v>26779.29736</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>97526.99296999999</v>
+        <v>104587.99113</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>90389.14576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>101573.2549</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>150083.339</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>534974.83016</v>
+        <v>584571.0379000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>547386.2719200001</v>
+        <v>601539.2656800001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>589504.39351</v>
+        <v>648179.0816599999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>558055.24681</v>
+        <v>628501.0333100001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>525462.7442300001</v>
+        <v>617444.94603</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>509609.21117</v>
+        <v>604729.2100900001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>517103.16033</v>
+        <v>652669.1419800001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>554468.9787699999</v>
+        <v>711096.317</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>583558.3619400001</v>
+        <v>765259.9219900001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1653918.63366</v>
+        <v>1862785.8077</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1776271.07362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2091845.8295</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2068242.261</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>478788.43869</v>
+        <v>549026.05831</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>484030.01838</v>
+        <v>551676.68079</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>531374.2728700001</v>
+        <v>603305.3625999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>522087.93514</v>
+        <v>602670.1335799999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>525394.21673</v>
+        <v>633172.07907</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>510083.05221</v>
+        <v>640868.26967</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>517184.6890499999</v>
+        <v>693598.3093000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>582037.91502</v>
+        <v>772045.45067</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>606416.4974400001</v>
+        <v>827173.6608</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1464634.08023</v>
+        <v>1684006.14642</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1620467.67094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1992312.45605</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1950155.895</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1040.45025</v>
+        <v>1047.96758</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>498.52108</v>
+        <v>584.94754</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>836.75925</v>
+        <v>868.0686699999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>761.8732200000001</v>
+        <v>911.66061</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>639.50674</v>
+        <v>793.9669399999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1278.11655</v>
+        <v>1321.94422</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>476.68692</v>
+        <v>515.84986</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1451.02817</v>
+        <v>1516.87542</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>622.87086</v>
+        <v>658.1391900000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1549.14356</v>
+        <v>1633.70497</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1402.22469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1348.73299</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2616.505</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>84071.28956</v>
+        <v>104009.2606</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>83168.99897000002</v>
+        <v>95022.61696</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>89812.35483</v>
+        <v>101435.86386</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>88375.48428999999</v>
+        <v>101272.4657</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>87225.61637</v>
+        <v>104898.75797</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>83773.33587</v>
+        <v>103543.78205</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>86141.15698</v>
+        <v>121528.38715</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>92255.86462000001</v>
+        <v>125681.52034</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>88090.22024000001</v>
+        <v>121500.05478</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>302454.75551</v>
+        <v>340734.39656</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>330845.77396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>394224.40337</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>364286.001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>393676.69888</v>
+        <v>443968.83013</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>400362.49833</v>
+        <v>456069.11629</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>440725.15879</v>
+        <v>501001.4300699999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>432950.57763</v>
+        <v>500486.00727</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>437529.0936199999</v>
+        <v>527479.35416</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>425031.59979</v>
+        <v>536002.5434</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>430566.84515</v>
+        <v>571554.0722899999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>488331.0222299999</v>
+        <v>644847.0549099999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>517703.40634</v>
+        <v>705015.46683</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1160630.18116</v>
+        <v>1341638.04489</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1288219.67229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1596739.31969</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1583253.389</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>56186.39146999999</v>
+        <v>35544.97958999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>63356.25353999999</v>
+        <v>49862.58489</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>58130.12064</v>
+        <v>44873.71906</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>35967.31167</v>
+        <v>25830.89973</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>68.52749999999976</v>
+        <v>-15727.13304</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-473.8410400000028</v>
+        <v>-36139.05958</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-81.52872000000073</v>
+        <v>-40929.16732000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-27568.93625</v>
+        <v>-60949.13367</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-22858.1355</v>
+        <v>-61913.73881</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>189284.55343</v>
+        <v>178779.66128</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>155803.40268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>99533.37344999998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>118086.366</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>27927.95418</v>
+        <v>64702.32517</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>19369.79256</v>
+        <v>57507.88742</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>23694.07337</v>
+        <v>54337.64044</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>20434.43748</v>
+        <v>50927.93402</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>27614.56339</v>
+        <v>70574.33529999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17069.22479</v>
+        <v>76266.32782999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>24134.14478</v>
+        <v>117371.54729</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19723.2173</v>
+        <v>106671.80245</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>22578.5867</v>
+        <v>128243.00062</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>133190.48625</v>
+        <v>370767.86844</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>97894.92516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>269165.8803500001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>358172.886</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>10.54068</v>
+        <v>10241.81776</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>154.20882</v>
+        <v>11398.06183</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>211.44291</v>
+        <v>4490.86071</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>125.40229</v>
+        <v>7842.51361</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>29.17986</v>
+        <v>6430.11172</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>30.13902</v>
+        <v>2370.87955</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>30.00011</v>
+        <v>423.0187</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6.11014</v>
+        <v>7493.11016</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>135.55577</v>
+        <v>9579.531809999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>379.2525</v>
+        <v>22957.48775</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1216.99124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>29915.87686</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13467.891</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1516.23569</v>
+        <v>1700.89938</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>2376.79197</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>20.00775</v>
+        <v>2459.94317</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0.01105</v>
+        <v>1573.73543</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2.85055</v>
+        <v>58.28355000000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0.119</v>
+        <v>2229.73059</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>2.42352</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>91.34194000000001</v>
+        <v>10122.82578</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>35.37398</v>
+        <v>43.96841999999999</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>145.03803</v>
@@ -1840,209 +1856,239 @@
       <c r="M27" s="48" t="n">
         <v>152.64303</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>21201.939</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2894.93374</v>
+        <v>11205.18745</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1792.01662</v>
+        <v>6268.3629</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1506.9887</v>
+        <v>5963.9536</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1570.0634</v>
+        <v>6512.86059</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1252.799</v>
+        <v>4883.54264</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1669.73896</v>
+        <v>8044.46947</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1573.83736</v>
+        <v>13403.31779</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2085.77515</v>
+        <v>13969.50838</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1609.21022</v>
+        <v>20117.03399</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10380.37471</v>
+        <v>39022.25094</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11026.4239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>42233.12379999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>37027.317</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1374.97473</v>
+        <v>1723.80604</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1343.105</v>
+        <v>1396.11913</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1181.63495</v>
+        <v>1244.20359</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>846.9163100000001</v>
+        <v>854.87036</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>8417.860709999999</v>
+        <v>8457.978419999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>405.18639</v>
+        <v>597.5255599999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>585.92713</v>
+        <v>780.84541</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>512.00289</v>
+        <v>608.5401899999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>471.82707</v>
+        <v>9917.072960000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1550.7041</v>
+        <v>2062.20999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2959.43248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3764.17368</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3812.08</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>648.9376999999999</v>
+        <v>751.7921199999998</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>489.00285</v>
+        <v>559.61712</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>178.40154</v>
+        <v>350.68956</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>107.8219</v>
+        <v>337.08348</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>26.46322</v>
+        <v>896.07132</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>44.90469</v>
+        <v>5467.345490000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>215.17906</v>
+        <v>1535.78647</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>274.8944100000001</v>
+        <v>1056.96984</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>389.20465</v>
+        <v>780.91293</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>965.5686999999999</v>
+        <v>1614.54615</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>788.41605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3117.91386</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5658.629</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>440.48093</v>
+        <v>577.06358</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>518.97483</v>
+        <v>634.3448600000002</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>403.48809</v>
+        <v>572.3664399999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>232.67847</v>
+        <v>462.16994</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>114.61745</v>
+        <v>749.33919</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>154.423</v>
+        <v>502.4993</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>199.05427</v>
+        <v>679.09213</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>145.09581</v>
+        <v>3048.00376</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>302.0837</v>
+        <v>3416.99763</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1336.26545</v>
+        <v>2327.27287</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1605.41038</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2557.25015</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2432.629</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11491.25351</v>
+        <v>19872.55517</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>5198.3828</v>
+        <v>12040.78744</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9673.77368</v>
+        <v>19926.33789</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>6352.4095</v>
+        <v>12710.59114</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7818.079489999999</v>
+        <v>23353.44984</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4398.44931</v>
+        <v>31724.40825</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9127.404049999999</v>
+        <v>62407.99779000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8692.50856</v>
+        <v>44343.38635</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>9444.70059</v>
+        <v>45587.55575</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>86467.17954000001</v>
+        <v>229845.75294</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>45852.13363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>108495.01496</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>190182.975</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>46.32439</v>
+        <v>143.25857</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>43.73427</v>
@@ -2051,7 +2097,7 @@
         <v>88.97348999999998</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>0</v>
+        <v>29.33691</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>0.09337999999999999</v>
@@ -2060,40 +2106,45 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>5.92584</v>
+        <v>219.40143</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>11.96021</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>0</v>
+        <v>6.56442</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>49.45307</v>
+        <v>54.39107000000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>43.67524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>669.28444</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>18.354</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>145.60746</v>
+        <v>178.88359</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>196.53964</v>
+        <v>363.20097</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>195.36101</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>84.89167</v>
+        <v>125.0577</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>10.43039</v>
+        <v>10.43045</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>34.78339</v>
@@ -2102,7 +2153,7 @@
         <v>10.00424</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>62.00437</v>
+        <v>62.00436999999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>55.24355</v>
@@ -2111,301 +2162,341 @@
         <v>138.94217</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>215.96812</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1037.94057</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>141.31</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>9358.665350000001</v>
+        <v>18307.06151</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9633.827730000001</v>
+        <v>22426.86693</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10234.00125</v>
+        <v>19044.95098</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>11114.24289</v>
+        <v>20479.71486</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>9942.189339999999</v>
+        <v>25735.03479</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>10331.48103</v>
+        <v>25294.68623</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>12386.81272</v>
+        <v>37909.65981</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7841.523819999999</v>
+        <v>25955.49341</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>10135.38717</v>
+        <v>38738.11915999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>31777.70798</v>
+        <v>72599.97653</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>34033.83109000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>77222.659</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>84229.762</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>20634.5327</v>
+        <v>31036.41912</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11948.62471</v>
+        <v>21511.93246</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>16764.96596</v>
+        <v>30995.45323</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>13815.96244</v>
+        <v>20941.2702</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10566.61473</v>
+        <v>26889.90005</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>11739.91974</v>
+        <v>58239.42857</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>11949.13597</v>
+        <v>50095.12553</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12462.8862</v>
+        <v>57682.97581</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>12595.47406</v>
+        <v>81340.08102000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>105981.35409</v>
+        <v>288922.44525</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>79974.69920999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>162907.90243</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>206145.51</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1405.35662</v>
+        <v>1619.27756</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>951.02485</v>
+        <v>1777.40663</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1141.58429</v>
+        <v>1255.89713</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1087.31711</v>
+        <v>1209.66376</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1310.83178</v>
+        <v>1488.76648</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1485.84541</v>
+        <v>1658.68187</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1094.8538</v>
+        <v>1281.95212</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1565.06226</v>
+        <v>1987.65377</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>923.81289</v>
+        <v>1233.5831</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4170.36254</v>
+        <v>4915.05582</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4883.91313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6055.610259999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5398.039</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1401.72254</v>
+        <v>2553.41412</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1591.76033</v>
+        <v>2252.03437</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1996.02442</v>
+        <v>2201.0038</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2186.6916</v>
+        <v>2268.40626</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>643.43173</v>
+        <v>1436.82569</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2318.04852</v>
+        <v>19457.23415</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1019.32744</v>
+        <v>3649.80093</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>632.31406</v>
+        <v>947.0328300000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>779.2569099999999</v>
+        <v>1689.56625</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3610.59216</v>
+        <v>9191.262349999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>7940.17317</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9823.452519999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4458.305</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>351.30997</v>
+        <v>391.38519</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>146.34909</v>
+        <v>252.84981</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>85.09344999999999</v>
+        <v>185.77492</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>75.04232999999999</v>
+        <v>88.35836</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>51.41252</v>
+        <v>1066.10627</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>91.82833000000001</v>
+        <v>430.94342</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>58.24223</v>
+        <v>78.72186000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10.60924</v>
+        <v>1233.40266</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>14.38445</v>
+        <v>11980.04072</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>168.68117</v>
+        <v>676.64954</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>176.68074</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2444.38678</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>151.897</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>8284.426810000001</v>
+        <v>16807.63097</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>5354.84476</v>
+        <v>11480.79138</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8582.215770000001</v>
+        <v>20454.55601</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6781.87187</v>
+        <v>12820.61741</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5062.85189</v>
+        <v>16982.42332</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3740.73733</v>
+        <v>24319.4169</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6290.561229999999</v>
+        <v>34370.32972</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6339.60367</v>
+        <v>41706.09582</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6838.56933</v>
+        <v>57979.57491</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>79810.47679</v>
+        <v>254294.58933</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>41889.13945999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>116307.89342</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>170529.276</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>58.27507</v>
+        <v>65.86407</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>96.18651999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>18.11857</v>
+        <v>436.84659</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1e-05</v>
+        <v>64.62919000000001</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>10.55443</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>141.25382</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>1.32022</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>45.21655000000001</v>
+        <v>135.0403</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>133.16903</v>
+        <v>143.72356</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>76.44783</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>182.332</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>23.56697</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>10.31213</v>
+        <v>18.75809</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>45.70106</v>
+        <v>45.70106000000001</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>6.15454</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>9.884450000000001</v>
+        <v>34.04101</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0.00382</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>49.00817</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9109.87472</v>
+        <v>9575.280239999998</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3798.14703</v>
+        <v>5633.90566</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4896.2284</v>
+        <v>6415.67372</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3678.88498</v>
+        <v>4483.44068</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3477.647930000001</v>
+        <v>5871.182849999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4103.45633</v>
+        <v>12231.89459</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3484.83096</v>
+        <v>10713.00059</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3858.14973</v>
+        <v>11661.81974</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4039.45029</v>
+        <v>8448.225849999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>18086.20777</v>
+        <v>19699.30002</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>24959.33671</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>28151.10345</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>25425.661</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>35422.7096</v>
+        <v>53169.50968</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>24573.29485</v>
+        <v>35924.93891</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>25052.02371</v>
+        <v>40740.6466</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>28439.19417</v>
+        <v>38647.64246</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>24863.74837</v>
+        <v>46371.18904999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>23998.17173000001</v>
+        <v>65683.51791</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>24103.97857</v>
+        <v>69763.29881000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>26547.23122</v>
+        <v>60605.65104</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>25405.14256</v>
+        <v>68584.11872999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>141350.2968</v>
+        <v>237524.06923</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>136823.47086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>298436.2938400001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>203030.183</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>33860.00172000001</v>
+        <v>50751.42337</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>23450.35341</v>
+        <v>33838.3123</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>23928.51265</v>
+        <v>39110.36887</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>27279.35955</v>
+        <v>37061.59684000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>23883.03869</v>
+        <v>44768.5095</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>23206.16219</v>
+        <v>61608.09339000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>23206.07972</v>
+        <v>68049.92053</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>25422.27825</v>
+        <v>57715.77165</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>23703.69752</v>
+        <v>59986.40976</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>134927.80794</v>
+        <v>226942.64412</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>129834.80031</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>288650.6613</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>195604.808</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1562.70788</v>
+        <v>2418.08631</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1122.94144</v>
+        <v>2086.62661</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1123.51106</v>
+        <v>1630.27773</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1159.83462</v>
+        <v>1586.04562</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>980.7096799999999</v>
+        <v>1602.67955</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>792.0095399999999</v>
+        <v>4075.42452</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>897.8988499999998</v>
+        <v>1713.37828</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1124.95297</v>
+        <v>2889.87939</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1701.44504</v>
+        <v>8597.70897</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6422.48886</v>
+        <v>10581.42511</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>6988.67055</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>9785.632539999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7425.375</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>28057.10335</v>
+        <v>16041.37596</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>46204.12653999999</v>
+        <v>49933.60094</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>40007.20434</v>
+        <v>27475.25967</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>14146.59254</v>
+        <v>17169.92109</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-7747.272209999999</v>
+        <v>-18413.88684</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-19142.70772</v>
+        <v>-83795.67822999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-12000.49848</v>
+        <v>-43416.04437</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-46855.83637</v>
+        <v>-72565.95806999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-38280.16542</v>
+        <v>-83594.93794</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>75143.38879000001</v>
+        <v>23101.01523999998</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>36900.15777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-92644.94246999999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>67083.55899999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>18733.60007</v>
+        <v>32326.06033</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>29511.9127</v>
+        <v>42502.26037</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>23777.59727</v>
+        <v>50420.79234</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>18066.85301</v>
+        <v>55331.15906000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>19959.4101</v>
+        <v>45944.33158999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>17061.32065</v>
+        <v>66187.49567999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23244.0735</v>
+        <v>78510.44488</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>24831.5045</v>
+        <v>55251.15208000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>28302.80515</v>
+        <v>56104.71274</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>64716.87134000001</v>
+        <v>86432.08124</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>94128.26910999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>163130.26465</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>185990.754</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>356.95129</v>
+        <v>607.22216</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>215.59765</v>
+        <v>474.23486</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>128.83179</v>
+        <v>570.86524</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>203.59827</v>
+        <v>3160.40444</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>293.44616</v>
+        <v>517.898</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>270.79374</v>
+        <v>388.09925</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>719.96586</v>
+        <v>2312.01064</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>157.18817</v>
+        <v>621.5965600000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>274.90498</v>
+        <v>291.42718</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>268.00355</v>
+        <v>646.1153500000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>990.1951200000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1423.83923</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1489.509</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>18376.64878</v>
+        <v>31718.83817</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>29296.31505</v>
+        <v>42028.02551</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>23648.76548</v>
+        <v>49849.92709999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>17863.25474</v>
+        <v>52170.75462000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>19665.96394</v>
+        <v>45426.43359</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>16790.52691</v>
+        <v>65799.39642999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>22524.10764</v>
+        <v>76198.43423999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>24674.31633</v>
+        <v>54629.55551999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>28027.90017</v>
+        <v>55813.28556</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>64448.86779</v>
+        <v>85785.96589000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>93138.07398999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>161706.42542</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>184501.245</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>20197.76364</v>
+        <v>33784.25369</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>29402.663</v>
+        <v>105994.51529</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>104745.13873</v>
+        <v>129500.10989</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>19087.35458</v>
+        <v>28226.42891</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>20190.906</v>
+        <v>33249.95764</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>39669.55928</v>
+        <v>64565.22866000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>21029.65133</v>
+        <v>35435.50134</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>69814.70772000001</v>
+        <v>100842.23601</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>26142.21808</v>
+        <v>45810.13776999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>94071.71417000001</v>
+        <v>136314.78065</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>65491.04029</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>98803.83246000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>139416.317</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>187.78556</v>
+        <v>525.08219</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>156.24092</v>
+        <v>255.15931</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>220.66285</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>219.035</v>
+        <v>287.13033</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>184.36265</v>
+        <v>350.42057</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>242.99668</v>
+        <v>400.80348</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>76.66231999999999</v>
+        <v>152.3154</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>332.97265</v>
+        <v>334.15713</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>188.31726</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>810.6565800000001</v>
+        <v>846.45785</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>493.86896</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>643.7516200000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1462.659</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1799.29698</v>
+        <v>1914.51416</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1503.07824</v>
+        <v>1925.00581</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2329.82102</v>
+        <v>2950.51128</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1677.15965</v>
+        <v>2862.90625</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>797.3364</v>
+        <v>965.59167</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>834.0441999999999</v>
+        <v>1173.60105</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1504.14121</v>
+        <v>1576.2436</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1106.72606</v>
+        <v>1410.80518</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>907.3798300000001</v>
+        <v>1032.03014</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1818.50283</v>
+        <v>2653.036360000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2465.93001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2760.6791</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6002.132</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>18210.6811</v>
+        <v>31344.65734</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>27743.34384</v>
+        <v>103814.35017</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>102194.65486</v>
+        <v>126328.93576</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>17191.15993</v>
+        <v>25076.39233</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>19209.20695</v>
+        <v>31933.9454</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>38592.5184</v>
+        <v>62990.82413</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>19448.8478</v>
+        <v>33706.94233999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>68375.00901000001</v>
+        <v>99097.27370000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>25046.52099</v>
+        <v>44589.79037</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>91442.55475999998</v>
+        <v>132815.28644</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>62531.24132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>95399.40174</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>131951.526</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>26592.93978</v>
+        <v>14583.1826</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>46313.37624000001</v>
+        <v>-13558.65398</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-40960.33711999999</v>
+        <v>-51604.05787999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>13126.09097</v>
+        <v>44274.65123999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-7978.768110000002</v>
+        <v>-5719.512890000003</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-41750.94635</v>
+        <v>-82173.41120999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-9786.076309999997</v>
+        <v>-341.1008300000057</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-91839.03959</v>
+        <v>-118157.042</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-36119.57835000001</v>
+        <v>-73300.36297</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>45788.54596</v>
+        <v>-26781.68417000002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>65537.38658999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-28318.51028000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>113657.996</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>17257.52223000001</v>
+        <v>19658.5664</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>18895.52974</v>
+        <v>21621.76097</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>19692.39101</v>
+        <v>22311.40284</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>16542.81756</v>
+        <v>19532.75024</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16801.95789</v>
+        <v>20476.85853</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15778.26906</v>
+        <v>20641.27533</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>16915.37628</v>
+        <v>22702.48361</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>16660.46804</v>
+        <v>22671.03924</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>17061.64635</v>
+        <v>25059.36597</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>57313.75468</v>
+        <v>69345.29134000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>62127.77855</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>78559.83109000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>87982.94</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>9335.417549999998</v>
+        <v>-5075.383799999997</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>27417.8465</v>
+        <v>-35180.41495000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-60652.72813</v>
+        <v>-73915.46072</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-3416.726589999997</v>
+        <v>24741.901</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-24780.726</v>
+        <v>-26196.37142</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-57529.21541</v>
+        <v>-102814.68654</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-26701.45259</v>
+        <v>-23043.58444000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-108499.50763</v>
+        <v>-140828.08124</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-53181.22470000001</v>
+        <v>-98359.72894</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-11525.20871999999</v>
+        <v>-96126.97550999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3409.608039999991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-106878.34137</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>25675.056</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>12517</v>
+        <v>13135</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>12399</v>
+        <v>13114</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>12022</v>
+        <v>12801</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>11260</v>
+        <v>12158</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>10851</v>
+        <v>11957</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>10288</v>
+        <v>11592</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9929</v>
+        <v>11523</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>10034</v>
+        <v>11854</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>10187</v>
+        <v>12122</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>13493</v>
+        <v>16049</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>13984</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>17437</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>19291</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>